--- a/datos_fbref/RESUMEN_STATS_Bundesliga.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Bundesliga.xlsx
@@ -940,34 +940,34 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="D8" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G8" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>6</v>
@@ -985,16 +985,16 @@
         <v>1.14</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -1281,28 +1281,28 @@
         <v>44.8</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G13" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" t="n">
         <v>7</v>
@@ -1311,25 +1311,25 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="R13" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="T13" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14">
@@ -1342,7 +1342,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>53.7</v>
@@ -1476,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>57.9</v>
